--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -1111,45 +1111,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="93.6328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="93.12890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="316">
   <si>
     <t>Path</t>
   </si>
@@ -900,6 +900,34 @@
   </si>
   <si>
     <t>Need to be able to define members in simple codes when the membership aligns well with terminology, with common criteria such as observations in a value set or lab tests within a year, or with expression language to support criteria that do not fit in the above.</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.method</t>
+  </si>
+  <si>
+    <t>Method used for describing characteristic</t>
+  </si>
+  <si>
+    <t>Method used for describing characteristic.</t>
+  </si>
+  <si>
+    <t>The method used to determine the characteristic(s) of the variable.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/characteristic-method</t>
+  </si>
+  <si>
+    <t>EvidenceVariable.characteristic.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
+</t>
+  </si>
+  <si>
+    <t>Device used for determining characteristic</t>
+  </si>
+  <si>
+    <t>Device used for determining characteristic.</t>
   </si>
   <si>
     <t>EvidenceVariable.characteristic.usageContext</t>
@@ -1102,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1111,45 +1139,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="83.20703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.7109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="93.6328125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="93.12890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="49.390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5837,7 +5865,7 @@
         <v>41</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>40</v>
@@ -5849,7 +5877,7 @@
         <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>286</v>
@@ -5858,9 +5886,7 @@
         <v>287</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>288</v>
-      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5884,13 +5910,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>288</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5914,7 +5940,7 @@
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -5937,7 +5963,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5960,22 +5986,20 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P44" t="s" s="2">
-        <v>293</v>
-      </c>
+      <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6019,7 +6043,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6059,7 +6083,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6071,16 +6095,18 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6134,7 +6160,7 @@
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6193,7 +6219,9 @@
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="Q46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6266,7 +6294,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6289,13 +6317,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>68</v>
+        <v>304</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6322,13 +6350,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>306</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6346,7 +6374,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6370,6 +6398,224 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1715" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -813,6 +813,19 @@
     <t>http://hl7.org/fhir/ValueSet/variable-type|4.1.0</t>
   </si>
   <si>
+    <t>EvidenceVariable.actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Actual or conceptual</t>
+  </si>
+  <si>
+    <t>True if the actual variable measured, false if a conceptual representation of the intended variable.</t>
+  </si>
+  <si>
     <t>EvidenceVariable.characteristic</t>
   </si>
   <si>
@@ -943,10 +956,6 @@
   </si>
   <si>
     <t>EvidenceVariable.characteristic.exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>Whether the characteristic includes or excludes members</t>
@@ -1130,7 +1139,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM49"/>
+  <dimension ref="A1:AM50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5196,11 +5205,11 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5208,7 +5217,7 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>258</v>
@@ -5219,9 +5228,7 @@
       <c r="L37" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>261</v>
-      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
@@ -5273,16 +5280,16 @@
         <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>40</v>
@@ -5299,7 +5306,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5307,10 +5314,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5319,18 +5326,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>120</v>
+        <v>262</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5379,20 +5388,20 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5403,23 +5412,23 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5431,17 +5440,15 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>268</v>
       </c>
       <c r="L39" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M39" t="s" s="2">
-        <v>97</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5496,7 +5503,7 @@
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5514,16 +5521,16 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>272</v>
+        <v>93</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5536,26 +5543,24 @@
         <v>40</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>102</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5603,7 +5608,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5627,35 +5632,35 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>91</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>276</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>277</v>
@@ -5663,9 +5668,11 @@
       <c r="L41" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>279</v>
+        <v>102</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5714,13 +5721,13 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5738,7 +5745,7 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42">
@@ -5751,7 +5758,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>49</v>
@@ -5763,20 +5770,20 @@
         <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5828,7 +5835,7 @@
         <v>280</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>49</v>
@@ -5854,7 +5861,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5862,7 +5869,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>49</v>
@@ -5874,10 +5881,10 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>286</v>
@@ -5886,7 +5893,9 @@
         <v>287</v>
       </c>
       <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
+      <c r="N43" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5910,13 +5919,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -5934,10 +5943,10 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>49</v>
@@ -5963,7 +5972,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5986,13 +5995,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>293</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6019,13 +6028,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>293</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6043,7 +6052,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6083,7 +6092,7 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>40</v>
@@ -6095,18 +6104,16 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6160,7 +6167,7 @@
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6194,7 +6201,7 @@
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6206,22 +6213,22 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" s="2"/>
+      <c r="N46" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P46" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6271,7 +6278,7 @@
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6294,7 +6301,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6317,20 +6324,22 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>304</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="Q47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6374,7 +6383,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6403,7 +6412,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6426,13 +6435,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6483,7 +6492,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6512,7 +6521,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6535,7 +6544,7 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>68</v>
+        <v>311</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>312</v>
@@ -6568,13 +6577,13 @@
         <v>40</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>148</v>
+        <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6592,7 +6601,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6616,6 +6625,115 @@
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>40</v>
       </c>
     </row>

--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -943,13 +943,13 @@
     <t>Device used for determining characteristic.</t>
   </si>
   <si>
-    <t>EvidenceVariable.characteristic.usageContext</t>
+    <t>EvidenceVariable.characteristic.booleanSet</t>
   </si>
   <si>
     <t>What code/value pairs define members?</t>
   </si>
   <si>
-    <t>Use UsageContext to define the members of the population, such as Age Ranges, Genders, Settings.</t>
+    <t>Use booleanSet to define the members of the population, such as Age Ranges, Genders, Settings.</t>
   </si>
   <si>
     <t>Need to be able to define members more structurally when more information can be communicated such as age range.</t>
@@ -6213,7 +6213,7 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>299</v>

--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -1148,45 +1148,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="49.390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="48.421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="82.7109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.20703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="93.12890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="48.515625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="49.390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="93.6328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="48.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="43.07421875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="86.953125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.69921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="85.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5314,7 +5314,7 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>42</v>
@@ -5391,7 +5391,7 @@
         <v>261</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>42</v>

--- a/image/evidencevariable.xlsx
+++ b/image/evidencevariable.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1749" uniqueCount="318">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -387,10 +387,6 @@
   </si>
   <si>
     <t>EvidenceVariable.version</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Business version of the evidence variable</t>
@@ -2558,16 +2554,16 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2632,10 +2628,10 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>40</v>
@@ -2646,7 +2642,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2669,19 +2665,19 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>40</v>
@@ -2730,7 +2726,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2739,7 +2735,7 @@
         <v>49</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
@@ -2759,7 +2755,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2782,16 +2778,16 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -2841,7 +2837,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2856,7 +2852,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -2870,7 +2866,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2893,17 +2889,17 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>138</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>139</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -2952,7 +2948,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -2981,7 +2977,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3004,13 +3000,13 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3061,7 +3057,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3090,7 +3086,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3116,13 +3112,13 @@
         <v>68</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3148,14 +3144,14 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3172,7 +3168,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>49</v>
@@ -3187,10 +3183,10 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
@@ -3201,11 +3197,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3224,16 +3220,16 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3283,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3298,10 +3294,10 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
@@ -3312,7 +3308,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3335,19 +3331,19 @@
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
@@ -3396,7 +3392,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3411,10 +3407,10 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3425,7 +3421,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3448,16 +3444,16 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3507,7 +3503,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3522,7 +3518,7 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -3536,7 +3532,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3559,16 +3555,16 @@
         <v>50</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3618,7 +3614,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3633,7 +3629,7 @@
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -3647,7 +3643,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3670,13 +3666,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3727,7 +3723,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3756,7 +3752,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3779,19 +3775,19 @@
         <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -3840,7 +3836,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3855,7 +3851,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -3869,7 +3865,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3892,16 +3888,16 @@
         <v>50</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3927,14 +3923,14 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>198</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
@@ -3951,7 +3947,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3966,7 +3962,7 @@
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -3980,11 +3976,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4003,17 +3999,17 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4062,7 +4058,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4077,7 +4073,7 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -4091,7 +4087,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4114,16 +4110,16 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4173,7 +4169,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4188,7 +4184,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -4202,7 +4198,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4225,19 +4221,19 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4286,7 +4282,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4301,7 +4297,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -4315,7 +4311,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4338,19 +4334,19 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4399,7 +4395,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4414,7 +4410,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -4428,7 +4424,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4451,17 +4447,17 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4486,14 +4482,14 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="X30" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="X30" t="s" s="2">
+      <c r="Y30" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>231</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4510,7 +4506,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4539,7 +4535,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4562,13 +4558,13 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4619,7 +4615,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4643,12 +4639,12 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4671,13 +4667,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4728,7 +4724,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4757,7 +4753,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4780,13 +4776,13 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4837,7 +4833,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4861,12 +4857,12 @@
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4889,13 +4885,13 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4946,7 +4942,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4970,12 +4966,12 @@
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4998,19 +4994,19 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5059,7 +5055,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5088,7 +5084,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5114,10 +5110,10 @@
         <v>68</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5144,14 +5140,14 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="Y36" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>256</v>
-      </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5168,7 +5164,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5197,7 +5193,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5220,13 +5216,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5277,7 +5273,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5306,7 +5302,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5329,16 +5325,16 @@
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K38" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K38" t="s" s="2">
+      <c r="L38" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5388,7 +5384,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5400,7 +5396,7 @@
         <v>40</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>40</v>
@@ -5417,7 +5413,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5440,13 +5436,13 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5497,7 +5493,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5521,12 +5517,12 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5555,7 +5551,7 @@
         <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>97</v>
@@ -5608,7 +5604,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5632,16 +5628,16 @@
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -5663,10 +5659,10 @@
         <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>97</v>
@@ -5721,7 +5717,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5750,7 +5746,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5773,17 +5769,17 @@
         <v>40</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5832,7 +5828,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5861,7 +5857,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5884,17 +5880,17 @@
         <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5943,7 +5939,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>49</v>
@@ -5972,7 +5968,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5995,13 +5991,13 @@
         <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6028,14 +6024,14 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="X44" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="Y44" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="Y44" t="s" s="2">
-        <v>293</v>
-      </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6052,7 +6048,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6081,7 +6077,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6104,13 +6100,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6161,7 +6157,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6190,7 +6186,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6213,17 +6209,17 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6272,7 +6268,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6301,7 +6297,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6324,13 +6320,13 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6338,7 +6334,7 @@
         <v>40</v>
       </c>
       <c r="P47" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q47" t="s" s="2">
         <v>40</v>
@@ -6383,7 +6379,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6412,7 +6408,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6435,13 +6431,13 @@
         <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="K48" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="K48" t="s" s="2">
+      <c r="L48" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6492,7 +6488,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6521,7 +6517,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6544,13 +6540,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6601,7 +6597,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6630,7 +6626,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6656,10 +6652,10 @@
         <v>68</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6686,14 +6682,14 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6710,7 +6706,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
